--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject37.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject37.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,13 +131,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.92732865256125296</v>
       </c>
       <c r="D1" s="0">
-        <v>0</v>
+        <v>0.654204497503722</v>
       </c>
       <c r="E1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -334,16 +334,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.56219096338702479</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.88094329044703834</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="0">
         <v>0</v>
@@ -540,19 +540,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.93794077368335826</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>0.68851157476330194</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.94332184507439776</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.87615255679185855</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="BK3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3" s="0">
         <v>0</v>
@@ -746,22 +746,22 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0</v>
+        <v>0.85763986352741628</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.8457022625090862</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.99971242865666676</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.97476654046880495</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.62139341103348378</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.737807448437654</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.87327812054346987</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.9586796834751814</v>
       </c>
       <c r="G5" s="0">
-        <v>0</v>
+        <v>0.85248974795490007</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="0">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="AF5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.61600053711112901</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.74158779101705907</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.74848327965174111</v>
       </c>
       <c r="H6" s="0">
-        <v>0</v>
+        <v>0.71134635769187959</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="0">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="AO6" s="0">
-        <v>0</v>
+        <v>0.90517131218821523</v>
       </c>
       <c r="AP6" s="0">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>0.88202769953398374</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.65425303625228204</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.68455858614433374</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.68035806830596224</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>0.89035205513311899</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.92365945289592732</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.66624471987843137</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.97668760629796725</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="AD8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.61918720706797392</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.5902416415335352</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.58237040120958716</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.50491982629769305</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="0">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK9" s="0">
         <v>0</v>
@@ -2003,25 +2003,25 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.8677790661041227</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.8780453711126226</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.68025686788895579</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.91687716555476739</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
       </c>
       <c r="N10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="0">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="AP10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="0">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK10" s="0">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="BO10" s="0">
-        <v>0</v>
+        <v>0.94407907481772702</v>
       </c>
       <c r="BP10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.69078218396362856</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.83129483477035127</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.60859615820900681</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.87252637275877154</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="AM11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="0">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="BH11" s="0">
-        <v>0</v>
+        <v>0.97450053887484867</v>
       </c>
       <c r="BI11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.50874722639333836</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.99764540544238667</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0</v>
+        <v>0.92377037595684064</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="AP12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="0">
         <v>0</v>
@@ -2586,10 +2586,10 @@
         <v>0</v>
       </c>
       <c r="BM12" s="0">
-        <v>0</v>
+        <v>0.88103045134207392</v>
       </c>
       <c r="BN12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.61226573665908401</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.52351155864692389</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.50590558637354843</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2833,25 +2833,25 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="0">
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>0.57039300111067992</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.72494607895002161</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.78999344606116606</v>
       </c>
       <c r="P14" s="0">
-        <v>0</v>
+        <v>0.61347564438853885</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="0">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="AX14" s="0">
-        <v>0</v>
+        <v>0.51677373012606009</v>
       </c>
       <c r="AY14" s="0">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="BG14" s="0">
-        <v>0</v>
+        <v>0.84765101911867635</v>
       </c>
       <c r="BH14" s="0">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.86503951469194806</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.54617084791891923</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.6606447864977113</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="0">
-        <v>0</v>
+        <v>0.59551988389785049</v>
       </c>
       <c r="AO15" s="0">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="0">
-        <v>0</v>
+        <v>0.98274032523422084</v>
       </c>
       <c r="AT15" s="0">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="0">
-        <v>0</v>
+        <v>0.58095889898458386</v>
       </c>
       <c r="BH15" s="0">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="BL15" s="0">
-        <v>0</v>
+        <v>0.7123263658313399</v>
       </c>
       <c r="BM15" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0</v>
+        <v>0.93764078053379141</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.8328058855089514</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.94143896387254977</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="BO16" s="0">
-        <v>0</v>
+        <v>0.9131669568642673</v>
       </c>
       <c r="BP16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.74454041960184214</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.8755699261711678</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0.56731030214987277</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="0">
-        <v>0</v>
+        <v>0.68174173693665974</v>
       </c>
       <c r="AV17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.93297595394212696</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.92083005402523366</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.60931846382301147</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0.50253460108158376</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.70958018780631482</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.68472610947071466</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="BG19" s="0">
-        <v>0</v>
+        <v>0.83798324362577059</v>
       </c>
       <c r="BH19" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.91264060439251349</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.74118836421854439</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.67116006701556286</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.60318677971281298</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="AT20" s="0">
-        <v>0</v>
+        <v>0.55487919451760548</v>
       </c>
       <c r="AU20" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.55690762280203088</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.52339401166481858</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.88816384480721133</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="BK21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL21" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.82653345107123899</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.62519409513731539</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.91381284826736697</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.78489878540003344</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="0">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="BI22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ22" s="0">
         <v>0</v>
@@ -4720,22 +4720,22 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.55188103786838805</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.6439082005386858</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>0.89188985073784788</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
-        <v>0</v>
+        <v>0.78692781416512647</v>
       </c>
       <c r="AA23" s="0">
         <v>0</v>
@@ -4777,10 +4777,10 @@
         <v>0</v>
       </c>
       <c r="AN23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.7755132046011417</v>
       </c>
       <c r="W24" s="0">
-        <v>0</v>
+        <v>0.84214629593403534</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.81278976137102732</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="0">
         <v>0</v>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="BA24" s="0">
-        <v>0</v>
+        <v>0.78392150850699993</v>
       </c>
       <c r="BB24" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.94390716753325532</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.81160168220092999</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="BC25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="0">
         <v>0</v>
@@ -5344,25 +5344,25 @@
         <v>0</v>
       </c>
       <c r="W26" s="0">
-        <v>0</v>
+        <v>0.7753765101908856</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.89759155187845208</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.71528934560398483</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.77573381931260421</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.58912735629565915</v>
       </c>
       <c r="AC26" s="0">
-        <v>0</v>
+        <v>0.54835800780325172</v>
       </c>
       <c r="AD26" s="0">
         <v>0</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.93016512881852331</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.52267298810300811</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.89879178174151941</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.70512876563358162</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="AW27" s="0">
-        <v>0</v>
+        <v>0.84799985187994875</v>
       </c>
       <c r="AX27" s="0">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="BN27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO27" s="0">
         <v>0</v>
@@ -5765,25 +5765,25 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.82013571451007872</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.83892670021735993</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
       </c>
       <c r="AF28" s="0">
-        <v>0</v>
+        <v>0.87353480857132604</v>
       </c>
       <c r="AG28" s="0">
         <v>0</v>
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="0">
-        <v>0</v>
+        <v>0.97396193861576674</v>
       </c>
       <c r="AM28" s="0">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="BP28" s="0">
-        <v>0</v>
+        <v>0.58330409464458144</v>
       </c>
     </row>
     <row r="29">
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="0">
         <v>0</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="0">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="Z29" s="0">
-        <v>0</v>
+        <v>0.51678670033280594</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.88524789015428818</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.93240312999916042</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0">
         <v>0</v>
@@ -6123,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.58955702406856658</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="BC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD30" s="0">
         <v>0</v>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="BN30" s="0">
-        <v>0</v>
+        <v>0.93430888152141089</v>
       </c>
       <c r="BO30" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.99846354942317672</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0</v>
+        <v>0.55149678779240552</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="AL31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="0">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="BK31" s="0">
-        <v>0</v>
+        <v>0.72686948261556106</v>
       </c>
       <c r="BL31" s="0">
         <v>0</v>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="0">
         <v>0</v>
@@ -6595,25 +6595,25 @@
         <v>0</v>
       </c>
       <c r="AB32" s="0">
-        <v>0</v>
+        <v>0.97747254898792013</v>
       </c>
       <c r="AC32" s="0">
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.58474420010077821</v>
       </c>
       <c r="AE32" s="0">
-        <v>0</v>
+        <v>0.7868869029189588</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0</v>
+        <v>0.5846383448352146</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.66339684182596481</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="AW32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX32" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>0</v>
+        <v>0.90018290237477072</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.68084937553890446</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.52991072361848524</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="0">
-        <v>0</v>
+        <v>0.82960649952505183</v>
       </c>
       <c r="AT33" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.77568735509159137</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.90728235570951177</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0</v>
+        <v>0.51567542722153581</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.67040385341745568</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR34" s="0">
         <v>0</v>
@@ -7070,10 +7070,10 @@
         <v>0</v>
       </c>
       <c r="AW34" s="0">
-        <v>0</v>
+        <v>0.5072504722823552</v>
       </c>
       <c r="AX34" s="0">
-        <v>0</v>
+        <v>0.85041115193092398</v>
       </c>
       <c r="AY34" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.81848768166715746</v>
       </c>
       <c r="AH35" s="0">
-        <v>0</v>
+        <v>0.76851364014094581</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.81021248525002443</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="AX35" s="0">
-        <v>0</v>
+        <v>0.62012615956693873</v>
       </c>
       <c r="AY35" s="0">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="BC35" s="0">
-        <v>0</v>
+        <v>0.85534234315361535</v>
       </c>
       <c r="BD35" s="0">
         <v>0</v>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="0">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="0">
         <v>0</v>
@@ -7437,16 +7437,16 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.9635030556620735</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0</v>
+        <v>0.74072914262235123</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7461,13 +7461,13 @@
         <v>0</v>
       </c>
       <c r="AP36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="0">
         <v>0</v>
       </c>
       <c r="AR36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS36" s="0">
         <v>0</v>
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="BM36" s="0">
-        <v>0</v>
+        <v>0.72436861699169874</v>
       </c>
       <c r="BN36" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.9990260817893224</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0</v>
+        <v>0.82100410099196841</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.72922546437250024</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.93112820863839252</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="0">
-        <v>0</v>
+        <v>0.64546153167350995</v>
       </c>
       <c r="AC38" s="0">
         <v>0</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="AE38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="0">
         <v>0</v>
@@ -7858,16 +7858,16 @@
         <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.86525208436410761</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.53658709031440677</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.81685856353296926</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.71868488002163144</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.59271091324966707</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0</v>
+        <v>0.5040049759007561</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.65538136247435053</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" s="0">
-        <v>0</v>
+        <v>0.5378384665506668</v>
       </c>
       <c r="BA39" s="0">
         <v>0</v>
@@ -8127,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="BF39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG39" s="0">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="BL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM39" s="0">
         <v>0</v>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="0">
-        <v>0</v>
+        <v>0.94920720835339867</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.85408438526492547</v>
       </c>
       <c r="AM40" s="0">
-        <v>0</v>
+        <v>0.53256032453669611</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="AU40" s="0">
-        <v>0</v>
+        <v>0.56073253456569749</v>
       </c>
       <c r="AV40" s="0">
         <v>0</v>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="BM40" s="0">
-        <v>0</v>
+        <v>0.89037743425737081</v>
       </c>
       <c r="BN40" s="0">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="0">
-        <v>0</v>
+        <v>0.5971819278022017</v>
       </c>
       <c r="G41" s="0">
         <v>0</v>
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="0">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.61366544885135976</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.92481478529465533</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8601,13 +8601,13 @@
         <v>0</v>
       </c>
       <c r="J42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="0">
         <v>0</v>
       </c>
       <c r="L42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="0">
         <v>0</v>
@@ -8679,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0</v>
+        <v>0.76467444505720095</v>
       </c>
       <c r="AR42" s="0">
-        <v>0</v>
+        <v>0.66428261912715703</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="0">
         <v>0</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="AH43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.96462374611019108</v>
       </c>
       <c r="AP43" s="0">
-        <v>0</v>
+        <v>0.9845078098209834</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.50313631721254848</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.93252419604804659</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK44" s="0">
         <v>0</v>
@@ -9109,25 +9109,25 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0</v>
+        <v>0.82538098530168424</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.81635999628785494</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.85529857741244708</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
       </c>
       <c r="AV44" s="0">
-        <v>0</v>
+        <v>0.65282435398665606</v>
       </c>
       <c r="AW44" s="0">
         <v>0</v>
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="0">
-        <v>0</v>
+        <v>0.83082820463285789</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="AG45" s="0">
-        <v>0</v>
+        <v>0.94819700542090279</v>
       </c>
       <c r="AH45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.96098947801920098</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.99770173612639212</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.6021493171590302</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="0">
-        <v>0</v>
+        <v>0.80539216845964989</v>
       </c>
       <c r="U46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.8293672396328855</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>0</v>
+        <v>0.74855980111333498</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="0">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>0</v>
+        <v>0.85334945839100507</v>
       </c>
       <c r="R47" s="0">
         <v>0</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="AN47" s="0">
-        <v>0</v>
+        <v>0.73093843855024798</v>
       </c>
       <c r="AO47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.64639219412160287</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9939,25 +9939,25 @@
         <v>0</v>
       </c>
       <c r="AR48" s="0">
-        <v>0</v>
+        <v>0.87868507524342465</v>
       </c>
       <c r="AS48" s="0">
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0</v>
+        <v>0.94028736256329526</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.51398190719851988</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="BJ48" s="0">
-        <v>0</v>
+        <v>0.60655797365883535</v>
       </c>
       <c r="BK48" s="0">
         <v>0</v>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="AA49" s="0">
-        <v>0</v>
+        <v>0.61624403478916445</v>
       </c>
       <c r="AB49" s="0">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="AF49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="0">
         <v>0</v>
       </c>
       <c r="AH49" s="0">
-        <v>0</v>
+        <v>0.58696506310637919</v>
       </c>
       <c r="AI49" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.98254358251454466</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.64628357393437608</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10261,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="0">
-        <v>0</v>
+        <v>0.77759856086551049</v>
       </c>
       <c r="O50" s="0">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="AH50" s="0">
-        <v>0</v>
+        <v>0.60750024165272154</v>
       </c>
       <c r="AI50" s="0">
-        <v>0</v>
+        <v>0.91703326126768503</v>
       </c>
       <c r="AJ50" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.53464701686934846</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.72415593378006804</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10748,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="AM52" s="0">
-        <v>0</v>
+        <v>0.64097236266606572</v>
       </c>
       <c r="AN52" s="0">
         <v>0</v>
@@ -10769,7 +10769,7 @@
         <v>0</v>
       </c>
       <c r="AT52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.86458680832574908</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.60657755559069026</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="0">
-        <v>0</v>
+        <v>0.66490432595724336</v>
       </c>
       <c r="Y53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.70087986605868235</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.57145158610826341</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.85998479874175171</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.76544958380557238</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="BP53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.70314590442147495</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.86946445098621727</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.84605701115277165</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="BG54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH54" s="0">
         <v>0</v>
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="BP54" s="0">
-        <v>0</v>
+        <v>0.94758673871949606</v>
       </c>
     </row>
     <row r="55">
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="0">
         <v>0</v>
@@ -11339,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="AD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="0">
         <v>0</v>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>0</v>
+        <v>0.69618188657220503</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
@@ -11408,10 +11408,10 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.68631849561644842</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.68919820791554531</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>0</v>
+        <v>0.91768399318937455</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11435,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="BJ55" s="0">
-        <v>0</v>
+        <v>0.90577406319240439</v>
       </c>
       <c r="BK55" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.70453881063218682</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11626,10 +11626,10 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.76372103694437588</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.54788966368254988</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0</v>
+        <v>0.92174905497144588</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.70417603373489746</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.51989149517675748</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.97013097783192015</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11984,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="AM58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.86454749679647169</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.77147182964070016</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0</v>
+        <v>0.83365451428777826</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.85993890239406801</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12115,10 +12115,10 @@
         <v>0</v>
       </c>
       <c r="N59" s="0">
-        <v>0</v>
+        <v>0.87850773206978561</v>
       </c>
       <c r="O59" s="0">
-        <v>0</v>
+        <v>0.77909995232648588</v>
       </c>
       <c r="P59" s="0">
         <v>0</v>
@@ -12130,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="0">
-        <v>0</v>
+        <v>0.99951090852041369</v>
       </c>
       <c r="T59" s="0">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="BB59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC59" s="0">
         <v>0</v>
@@ -12244,16 +12244,16 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.67953553972698588</v>
       </c>
       <c r="BF59" s="0">
-        <v>0</v>
+        <v>0.98136339369549108</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12312,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="0">
-        <v>0</v>
+        <v>0.55457762478065964</v>
       </c>
       <c r="L60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.59308780539561501</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.74484868232848744</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12551,7 +12551,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" s="0">
         <v>0</v>
@@ -12665,16 +12665,16 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.85329683225714958</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.78481887037542841</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.79964197862772157</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12689,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="BP61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -12709,7 +12709,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="0">
         <v>0</v>
@@ -12718,10 +12718,10 @@
         <v>0</v>
       </c>
       <c r="I62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="0">
         <v>0</v>
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="AV62" s="0">
-        <v>0</v>
+        <v>0.71250935806450211</v>
       </c>
       <c r="AW62" s="0">
         <v>0</v>
@@ -12856,7 +12856,7 @@
         <v>0</v>
       </c>
       <c r="BC62" s="0">
-        <v>0</v>
+        <v>0.50192034145801623</v>
       </c>
       <c r="BD62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.94987064128732257</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0</v>
+        <v>0.53291584534025072</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="0">
         <v>0</v>
@@ -12960,7 +12960,7 @@
         <v>0</v>
       </c>
       <c r="U63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63" s="0">
         <v>0</v>
@@ -12990,7 +12990,7 @@
         <v>0</v>
       </c>
       <c r="AE63" s="0">
-        <v>0</v>
+        <v>0.97646501316364842</v>
       </c>
       <c r="AF63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.83610411085718794</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.96995628714066418</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.68982765839563243</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13148,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="0">
-        <v>0</v>
+        <v>0.52597689725811159</v>
       </c>
       <c r="P64" s="0">
         <v>0</v>
@@ -13220,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="AM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0</v>
+        <v>0.89309327252324233</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.77496167674590044</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.73091479663175929</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="0">
-        <v>0</v>
+        <v>0.59466323234052842</v>
       </c>
       <c r="M65" s="0">
         <v>0</v>
@@ -13417,7 +13417,7 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="0">
-        <v>0</v>
+        <v>0.5390944314553785</v>
       </c>
       <c r="AK65" s="0">
         <v>0</v>
@@ -13429,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="AN65" s="0">
-        <v>0</v>
+        <v>0.66922453543337124</v>
       </c>
       <c r="AO65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.84123127934865993</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.5232713537023872</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.91665212816563368</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13551,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" s="0">
         <v>0</v>
@@ -13596,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB66" s="0">
         <v>0</v>
@@ -13605,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="AD66" s="0">
-        <v>0</v>
+        <v>0.70516330534115745</v>
       </c>
       <c r="AE66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.73613899140673855</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.90463860580118138</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.87398765145289259</v>
       </c>
       <c r="BP66" s="0">
-        <v>0</v>
+        <v>0.97554986070593064</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13751,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="0">
-        <v>0</v>
+        <v>0.80052900179720909</v>
       </c>
       <c r="K67" s="0">
         <v>0</v>
@@ -13769,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="0">
-        <v>0</v>
+        <v>0.75649150857088998</v>
       </c>
       <c r="Q67" s="0">
         <v>0</v>
@@ -13916,16 +13916,16 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.70770773806459086</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.96962570159037575</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -14011,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="AB68" s="0">
-        <v>0</v>
+        <v>0.75408213226489695</v>
       </c>
       <c r="AC68" s="0">
         <v>0</v>
@@ -14086,10 +14086,10 @@
         <v>0</v>
       </c>
       <c r="BA68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB68" s="0">
-        <v>0</v>
+        <v>0.76903721336244191</v>
       </c>
       <c r="BC68" s="0">
         <v>0</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="BI68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0</v>
+        <v>0.95632345602082336</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject37.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject37.xlsx
@@ -134,10 +134,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>0.92732865256125296</v>
+        <v>0.93794077368335826</v>
       </c>
       <c r="D1" s="0">
-        <v>0.654204497503722</v>
+        <v>0.85763986352741628</v>
       </c>
       <c r="E1" s="0">
         <v>0</v>
@@ -340,7 +340,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.56219096338702479</v>
+        <v>0.68851157476330194</v>
       </c>
       <c r="D2" s="0">
         <v>0.88094329044703834</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.94332184507439776</v>
+        <v>0.99971242865666676</v>
       </c>
       <c r="E3" s="0">
         <v>0.87615255679185855</v>
@@ -749,7 +749,7 @@
         <v>0.85763986352741628</v>
       </c>
       <c r="B4" s="0">
-        <v>0.8457022625090862</v>
+        <v>0.88094329044703834</v>
       </c>
       <c r="C4" s="0">
         <v>0.99971242865666676</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.737807448437654</v>
+        <v>0.87615255679185855</v>
       </c>
       <c r="D5" s="0">
-        <v>0.87327812054346987</v>
+        <v>0.97476654046880495</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0.9586796834751814</v>
       </c>
       <c r="G5" s="0">
-        <v>0.85248974795490007</v>
+        <v>0.88202769953398374</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.61600053711112901</v>
+        <v>0.62139341103348378</v>
       </c>
       <c r="E6" s="0">
-        <v>0.74158779101705907</v>
+        <v>0.9586796834751814</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0.74848327965174111</v>
       </c>
       <c r="H6" s="0">
-        <v>0.71134635769187959</v>
+        <v>0.89035205513311899</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>0.88202769953398374</v>
       </c>
       <c r="F7" s="0">
-        <v>0.65425303625228204</v>
+        <v>0.74848327965174111</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.68455858614433374</v>
+        <v>0.92365945289592732</v>
       </c>
       <c r="I7" s="0">
         <v>0.68035806830596224</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.61918720706797392</v>
+        <v>0.68035806830596224</v>
       </c>
       <c r="H9" s="0">
-        <v>0.5902416415335352</v>
+        <v>0.66624471987843137</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.58237040120958716</v>
+        <v>0.8780453711126226</v>
       </c>
       <c r="K9" s="0">
-        <v>0.50491982629769305</v>
+        <v>0.69078218396362856</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.8677790661041227</v>
+        <v>0.97668760629796725</v>
       </c>
       <c r="I10" s="0">
         <v>0.8780453711126226</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.68025686788895579</v>
+        <v>0.83129483477035127</v>
       </c>
       <c r="L10" s="0">
         <v>0.91687716555476739</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0.60859615820900681</v>
+        <v>0.99764540544238667</v>
       </c>
       <c r="M11" s="0">
         <v>0.87252637275877154</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.50874722639333836</v>
+        <v>0.91687716555476739</v>
       </c>
       <c r="K12" s="0">
         <v>0.99764540544238667</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.61226573665908401</v>
+        <v>0.87252637275877154</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2639,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.52351155864692389</v>
+        <v>0.72494607895002161</v>
       </c>
       <c r="O13" s="0">
-        <v>0.50590558637354843</v>
+        <v>0.86503951469194806</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.57039300111067992</v>
+        <v>0.92377037595684064</v>
       </c>
       <c r="M14" s="0">
         <v>0.72494607895002161</v>
@@ -2851,7 +2851,7 @@
         <v>0.78999344606116606</v>
       </c>
       <c r="P14" s="0">
-        <v>0.61347564438853885</v>
+        <v>0.93764078053379141</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="AX14" s="0">
-        <v>0.51677373012606009</v>
+        <v>0.77759856086551049</v>
       </c>
       <c r="AY14" s="0">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="BG14" s="0">
-        <v>0.84765101911867635</v>
+        <v>0.87850773206978561</v>
       </c>
       <c r="BH14" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0.86503951469194806</v>
       </c>
       <c r="N15" s="0">
-        <v>0.54617084791891923</v>
+        <v>0.78999344606116606</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.6606447864977113</v>
+        <v>0.74454041960184214</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="0">
-        <v>0.59551988389785049</v>
+        <v>0.94920720835339867</v>
       </c>
       <c r="AO15" s="0">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="0">
-        <v>0.58095889898458386</v>
+        <v>0.77909995232648588</v>
       </c>
       <c r="BH15" s="0">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.8328058855089514</v>
+        <v>0.8755699261711678</v>
       </c>
       <c r="R16" s="0">
         <v>0.94143896387254977</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="0">
-        <v>0.68174173693665974</v>
+        <v>0.85334945839100507</v>
       </c>
       <c r="AV17" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.93297595394212696</v>
+        <v>0.94143896387254977</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0.92083005402523366</v>
       </c>
       <c r="T18" s="0">
-        <v>0.60931846382301147</v>
+        <v>0.91264060439251349</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3884,16 +3884,16 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.50253460108158376</v>
+        <v>0.56731030214987277</v>
       </c>
       <c r="R19" s="0">
-        <v>0.70958018780631482</v>
+        <v>0.92083005402523366</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.68472610947071466</v>
+        <v>0.74118836421854439</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="BG19" s="0">
-        <v>0.83798324362577059</v>
+        <v>0.99951090852041369</v>
       </c>
       <c r="BH19" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0.67116006701556286</v>
       </c>
       <c r="V20" s="0">
-        <v>0.60318677971281298</v>
+        <v>0.82653345107123899</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="AT20" s="0">
-        <v>0.55487919451760548</v>
+        <v>0.80539216845964989</v>
       </c>
       <c r="AU20" s="0">
         <v>0</v>
@@ -4305,13 +4305,13 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0.55690762280203088</v>
+        <v>0.67116006701556286</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.52339401166481858</v>
+        <v>0.62519409513731539</v>
       </c>
       <c r="W21" s="0">
         <v>0.88816384480721133</v>
@@ -4720,10 +4720,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.55188103786838805</v>
+        <v>0.88816384480721133</v>
       </c>
       <c r="V23" s="0">
-        <v>0.6439082005386858</v>
+        <v>0.91381284826736697</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4929,10 +4929,10 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.7755132046011417</v>
+        <v>0.78489878540003344</v>
       </c>
       <c r="W24" s="0">
-        <v>0.84214629593403534</v>
+        <v>0.89188985073784788</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.81278976137102732</v>
+        <v>0.89759155187845208</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0.94390716753325532</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.81160168220092999</v>
+        <v>0.93016512881852331</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5344,13 +5344,13 @@
         <v>0</v>
       </c>
       <c r="W26" s="0">
-        <v>0.7753765101908856</v>
+        <v>0.78692781416512647</v>
       </c>
       <c r="X26" s="0">
         <v>0.89759155187845208</v>
       </c>
       <c r="Y26" s="0">
-        <v>0.71528934560398483</v>
+        <v>0.94390716753325532</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0.77573381931260421</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.58912735629565915</v>
+        <v>0.82013571451007872</v>
       </c>
       <c r="AC26" s="0">
         <v>0.54835800780325172</v>
@@ -5559,7 +5559,7 @@
         <v>0.93016512881852331</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.52267298810300811</v>
+        <v>0.77573381931260421</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0.89879178174151941</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.70512876563358162</v>
+        <v>0.88524789015428818</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0.82013571451007872</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.83892670021735993</v>
+        <v>0.89879178174151941</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="AF28" s="0">
-        <v>0.87353480857132604</v>
+        <v>0.97747254898792013</v>
       </c>
       <c r="AG28" s="0">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="BP28" s="0">
-        <v>0.58330409464458144</v>
+        <v>0.75408213226489695</v>
       </c>
     </row>
     <row r="29">
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="Z29" s="0">
-        <v>0.51678670033280594</v>
+        <v>0.54835800780325172</v>
       </c>
       <c r="AA29" s="0">
         <v>0.88524789015428818</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>0.93240312999916042</v>
+        <v>0.99846354942317672</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0.55149678779240552</v>
+        <v>0.7868869029189588</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="BK31" s="0">
-        <v>0.72686948261556106</v>
+        <v>0.97646501316364842</v>
       </c>
       <c r="BL31" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0.58474420010077821</v>
+        <v>0.58955702406856658</v>
       </c>
       <c r="AE32" s="0">
         <v>0.7868869029189588</v>
@@ -6610,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.5846383448352146</v>
+        <v>0.90018290237477072</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.66339684182596481</v>
+        <v>0.77568735509159137</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6819,10 +6819,10 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.68084937553890446</v>
+        <v>0.90728235570951177</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.52991072361848524</v>
+        <v>0.81848768166715746</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="0">
-        <v>0.82960649952505183</v>
+        <v>0.94819700542090279</v>
       </c>
       <c r="AT33" s="0">
         <v>0</v>
@@ -7028,10 +7028,10 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.51567542722153581</v>
+        <v>0.76851364014094581</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.67040385341745568</v>
+        <v>0.9635030556620735</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="AW34" s="0">
-        <v>0.5072504722823552</v>
+        <v>0.58696506310637919</v>
       </c>
       <c r="AX34" s="0">
         <v>0.85041115193092398</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.81021248525002443</v>
+        <v>0.9990260817893224</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="AX35" s="0">
-        <v>0.62012615956693873</v>
+        <v>0.91703326126768503</v>
       </c>
       <c r="AY35" s="0">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.74072914262235123</v>
+        <v>0.82100410099196841</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.72922546437250024</v>
+        <v>0.86525208436410761</v>
       </c>
       <c r="AM37" s="0">
         <v>0.93112820863839252</v>
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="0">
-        <v>0.64546153167350995</v>
+        <v>0.97396193861576674</v>
       </c>
       <c r="AC38" s="0">
         <v>0</v>
@@ -7864,10 +7864,10 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.53658709031440677</v>
+        <v>0.59271091324966707</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.81685856353296926</v>
+        <v>0.85408438526492547</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.71868488002163144</v>
+        <v>0.93112820863839252</v>
       </c>
       <c r="AL39" s="0">
         <v>0.59271091324966707</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.5040049759007561</v>
+        <v>0.53256032453669611</v>
       </c>
       <c r="AO39" s="0">
         <v>0.65538136247435053</v>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" s="0">
-        <v>0.5378384665506668</v>
+        <v>0.64097236266606572</v>
       </c>
       <c r="BA39" s="0">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="AU40" s="0">
-        <v>0.56073253456569749</v>
+        <v>0.73093843855024798</v>
       </c>
       <c r="AV40" s="0">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="0">
-        <v>0.5971819278022017</v>
+        <v>0.90517131218821523</v>
       </c>
       <c r="G41" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.61366544885135976</v>
+        <v>0.65538136247435053</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.92481478529465533</v>
+        <v>0.96462374611019108</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.76467444505720095</v>
+        <v>0.9845078098209834</v>
       </c>
       <c r="AR42" s="0">
-        <v>0.66428261912715703</v>
+        <v>0.82538098530168424</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8909,10 +8909,10 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.50313631721254848</v>
+        <v>0.81635999628785494</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.93252419604804659</v>
+        <v>0.96098947801920098</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.85529857741244708</v>
+        <v>0.99770173612639212</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="AV44" s="0">
-        <v>0.65282435398665606</v>
+        <v>0.87868507524342465</v>
       </c>
       <c r="AW44" s="0">
         <v>0</v>
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="0">
-        <v>0.83082820463285789</v>
+        <v>0.98274032523422084</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.6021493171590302</v>
+        <v>0.8293672396328855</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.74855980111333498</v>
+        <v>0.94028736256329526</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.64639219412160287</v>
+        <v>0.98254358251454466</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.51398190719851988</v>
+        <v>0.64628357393437608</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="BJ48" s="0">
-        <v>0.60655797365883535</v>
+        <v>0.71250935806450211</v>
       </c>
       <c r="BK48" s="0">
         <v>0</v>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="AA49" s="0">
-        <v>0.61624403478916445</v>
+        <v>0.84799985187994875</v>
       </c>
       <c r="AB49" s="0">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="AH50" s="0">
-        <v>0.60750024165272154</v>
+        <v>0.85041115193092398</v>
       </c>
       <c r="AI50" s="0">
         <v>0.91703326126768503</v>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.53464701686934846</v>
+        <v>0.86458680832574908</v>
       </c>
       <c r="BA51" s="0">
         <v>0.72415593378006804</v>
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="0">
-        <v>0.66490432595724336</v>
+        <v>0.78392150850699993</v>
       </c>
       <c r="Y53" s="0">
         <v>0</v>
@@ -10990,10 +10990,10 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.70087986605868235</v>
+        <v>0.72415593378006804</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.57145158610826341</v>
+        <v>0.60657755559069026</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.70314590442147495</v>
+        <v>0.85998479874175171</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>0.69618188657220503</v>
+        <v>0.85534234315361535</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
@@ -11408,10 +11408,10 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.68631849561644842</v>
+        <v>0.76544958380557238</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.68919820791554531</v>
+        <v>0.86946445098621727</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>0.91768399318937455</v>
+        <v>0.92174905497144588</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.70453881063218682</v>
+        <v>0.84605701115277165</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0.76372103694437588</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.54788966368254988</v>
+        <v>0.86454749679647169</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11829,13 +11829,13 @@
         <v>0.92174905497144588</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.70417603373489746</v>
+        <v>0.76372103694437588</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0.51989149517675748</v>
+        <v>0.77147182964070016</v>
       </c>
       <c r="BG57" s="0">
         <v>0.97013097783192015</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.83365451428777826</v>
+        <v>0.98136339369549108</v>
       </c>
       <c r="BH58" s="0">
         <v>0.85993890239406801</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.67953553972698588</v>
+        <v>0.97013097783192015</v>
       </c>
       <c r="BF59" s="0">
         <v>0.98136339369549108</v>
@@ -12312,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="0">
-        <v>0.55457762478065964</v>
+        <v>0.97450053887484867</v>
       </c>
       <c r="L60" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.59308780539561501</v>
+        <v>0.85993890239406801</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.74484868232848744</v>
+        <v>0.85329683225714958</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12671,10 +12671,10 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.78481887037542841</v>
+        <v>0.94987064128732257</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.79964197862772157</v>
+        <v>0.83610411085718794</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12856,7 +12856,7 @@
         <v>0</v>
       </c>
       <c r="BC62" s="0">
-        <v>0.50192034145801623</v>
+        <v>0.90577406319240439</v>
       </c>
       <c r="BD62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.53291584534025072</v>
+        <v>0.89309327252324233</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0.96995628714066418</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.68982765839563243</v>
+        <v>0.84123127934865993</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13148,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="0">
-        <v>0.52597689725811159</v>
+        <v>0.7123263658313399</v>
       </c>
       <c r="P64" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0.89309327252324233</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.77496167674590044</v>
+        <v>0.96995628714066418</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0.73091479663175929</v>
+        <v>0.73613899140673855</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="0">
-        <v>0.59466323234052842</v>
+        <v>0.88103045134207392</v>
       </c>
       <c r="M65" s="0">
         <v>0</v>
@@ -13417,7 +13417,7 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="0">
-        <v>0.5390944314553785</v>
+        <v>0.72436861699169874</v>
       </c>
       <c r="AK65" s="0">
         <v>0</v>
@@ -13429,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="AN65" s="0">
-        <v>0.66922453543337124</v>
+        <v>0.89037743425737081</v>
       </c>
       <c r="AO65" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.5232713537023872</v>
+        <v>0.90463860580118138</v>
       </c>
       <c r="BO65" s="0">
         <v>0.91665212816563368</v>
@@ -13605,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="AD66" s="0">
-        <v>0.70516330534115745</v>
+        <v>0.93430888152141089</v>
       </c>
       <c r="AE66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.87398765145289259</v>
+        <v>0.96962570159037575</v>
       </c>
       <c r="BP66" s="0">
         <v>0.97554986070593064</v>
@@ -13751,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="0">
-        <v>0.80052900179720909</v>
+        <v>0.94407907481772702</v>
       </c>
       <c r="K67" s="0">
         <v>0</v>
@@ -13769,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="0">
-        <v>0.75649150857088998</v>
+        <v>0.9131669568642673</v>
       </c>
       <c r="Q67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.70770773806459086</v>
+        <v>0.91665212816563368</v>
       </c>
       <c r="BN67" s="0">
         <v>0.96962570159037575</v>
@@ -14089,7 +14089,7 @@
         <v>0</v>
       </c>
       <c r="BB68" s="0">
-        <v>0.76903721336244191</v>
+        <v>0.94758673871949606</v>
       </c>
       <c r="BC68" s="0">
         <v>0</v>
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0.95632345602082336</v>
+        <v>0.97554986070593064</v>
       </c>
       <c r="BO68" s="0">
         <v>0</v>
